--- a/Макет сайта Главная страница.xlsx
+++ b/Макет сайта Главная страница.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\колян\Documents\TOP-Akademy\Python\sublim\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XP-win\Documents\TOP-Akademy\Python\sublim\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F39A4337-4B0B-4106-9DA4-6E297BB402E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12495"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -167,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,150 +476,6 @@
   </cellStyleXfs>
   <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -633,17 +490,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -653,81 +511,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -756,7 +689,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Рисунок 1"/>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -811,13 +750,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Рисунок 2"/>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -866,7 +811,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Рисунок 4"/>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -921,7 +872,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Рисунок 5"/>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -976,7 +933,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Рисунок 6"/>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1031,7 +994,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Рисунок 7"/>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1086,7 +1055,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Рисунок 8"/>
+        <xdr:cNvPr id="9" name="Рисунок 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1141,7 +1116,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Рисунок 9"/>
+        <xdr:cNvPr id="10" name="Рисунок 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1196,7 +1177,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Рисунок 10"/>
+        <xdr:cNvPr id="11" name="Рисунок 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1251,7 +1238,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Рисунок 11"/>
+        <xdr:cNvPr id="12" name="Рисунок 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1556,11 +1549,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:BH45"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW2" sqref="AW2"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BW27" sqref="BW27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.28515625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1587,747 +1580,747 @@
     </row>
     <row r="3" spans="2:60" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:60" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="M4" s="13" t="s">
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="44"/>
+      <c r="M4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AG4" s="14"/>
-      <c r="AH4" s="14"/>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="15"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="3"/>
-      <c r="AQ4" s="19" t="s">
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
+      <c r="S4" s="49"/>
+      <c r="T4" s="49"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="49"/>
+      <c r="W4" s="49"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="49"/>
+      <c r="Z4" s="49"/>
+      <c r="AA4" s="49"/>
+      <c r="AB4" s="49"/>
+      <c r="AC4" s="49"/>
+      <c r="AD4" s="49"/>
+      <c r="AE4" s="49"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="49"/>
+      <c r="AH4" s="49"/>
+      <c r="AI4" s="49"/>
+      <c r="AJ4" s="49"/>
+      <c r="AK4" s="50"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="56"/>
+      <c r="AQ4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="AR4" s="20"/>
-      <c r="AS4" s="20"/>
-      <c r="AT4" s="20"/>
-      <c r="AU4" s="20"/>
-      <c r="AV4" s="20"/>
-      <c r="AW4" s="21"/>
-      <c r="AY4" s="19" t="s">
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="61"/>
+      <c r="AU4" s="61"/>
+      <c r="AV4" s="61"/>
+      <c r="AW4" s="62"/>
+      <c r="AY4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="AZ4" s="20"/>
-      <c r="BA4" s="20"/>
-      <c r="BB4" s="20"/>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="20"/>
-      <c r="BE4" s="20"/>
-      <c r="BF4" s="20"/>
-      <c r="BG4" s="20"/>
-      <c r="BH4" s="21"/>
+      <c r="AZ4" s="61"/>
+      <c r="BA4" s="61"/>
+      <c r="BB4" s="61"/>
+      <c r="BC4" s="61"/>
+      <c r="BD4" s="61"/>
+      <c r="BE4" s="61"/>
+      <c r="BF4" s="61"/>
+      <c r="BG4" s="61"/>
+      <c r="BH4" s="62"/>
     </row>
     <row r="5" spans="2:60" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="12"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AB5" s="17"/>
-      <c r="AC5" s="17"/>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AK5" s="18"/>
-      <c r="AM5" s="4"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="6"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="23"/>
-      <c r="AS5" s="23"/>
-      <c r="AT5" s="23"/>
-      <c r="AU5" s="23"/>
-      <c r="AV5" s="23"/>
-      <c r="AW5" s="24"/>
-      <c r="AY5" s="22"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="23"/>
-      <c r="BB5" s="23"/>
-      <c r="BC5" s="23"/>
-      <c r="BD5" s="23"/>
-      <c r="BE5" s="23"/>
-      <c r="BF5" s="23"/>
-      <c r="BG5" s="23"/>
-      <c r="BH5" s="24"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="52"/>
+      <c r="R5" s="52"/>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="52"/>
+      <c r="AF5" s="52"/>
+      <c r="AG5" s="52"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="53"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="59"/>
+      <c r="AQ5" s="63"/>
+      <c r="AR5" s="64"/>
+      <c r="AS5" s="64"/>
+      <c r="AT5" s="64"/>
+      <c r="AU5" s="64"/>
+      <c r="AV5" s="64"/>
+      <c r="AW5" s="65"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="64"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="64"/>
+      <c r="BE5" s="64"/>
+      <c r="BF5" s="64"/>
+      <c r="BG5" s="64"/>
+      <c r="BH5" s="65"/>
     </row>
     <row r="6" spans="2:60" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:60" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
-      <c r="O7" s="31" t="s">
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="35"/>
+      <c r="O7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="32"/>
-      <c r="S7" s="32"/>
-      <c r="T7" s="32"/>
-      <c r="U7" s="32"/>
-      <c r="V7" s="32"/>
-      <c r="W7" s="32"/>
-      <c r="X7" s="32"/>
-      <c r="Y7" s="32"/>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="32"/>
-      <c r="AB7" s="32"/>
-      <c r="AC7" s="33"/>
-      <c r="AG7" s="31" t="s">
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+      <c r="S7" s="25"/>
+      <c r="T7" s="25"/>
+      <c r="U7" s="25"/>
+      <c r="V7" s="25"/>
+      <c r="W7" s="25"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="25"/>
+      <c r="AA7" s="25"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="26"/>
+      <c r="AG7" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="AH7" s="32"/>
-      <c r="AI7" s="32"/>
-      <c r="AJ7" s="32"/>
-      <c r="AK7" s="32"/>
-      <c r="AL7" s="32"/>
-      <c r="AM7" s="32"/>
-      <c r="AN7" s="32"/>
-      <c r="AO7" s="32"/>
-      <c r="AP7" s="32"/>
-      <c r="AQ7" s="33"/>
-      <c r="AU7" s="31" t="s">
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="26"/>
+      <c r="AU7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="AV7" s="32"/>
-      <c r="AW7" s="32"/>
-      <c r="AX7" s="32"/>
-      <c r="AY7" s="32"/>
-      <c r="AZ7" s="32"/>
-      <c r="BA7" s="32"/>
-      <c r="BB7" s="32"/>
-      <c r="BC7" s="32"/>
-      <c r="BD7" s="32"/>
-      <c r="BE7" s="32"/>
-      <c r="BF7" s="32"/>
-      <c r="BG7" s="32"/>
-      <c r="BH7" s="33"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
+      <c r="BC7" s="25"/>
+      <c r="BD7" s="25"/>
+      <c r="BE7" s="25"/>
+      <c r="BF7" s="25"/>
+      <c r="BG7" s="25"/>
+      <c r="BH7" s="26"/>
     </row>
     <row r="8" spans="2:60" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="45"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="35"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="36"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="36"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
-      <c r="AX8" s="35"/>
-      <c r="AY8" s="35"/>
-      <c r="AZ8" s="35"/>
-      <c r="BA8" s="35"/>
-      <c r="BB8" s="35"/>
-      <c r="BC8" s="35"/>
-      <c r="BD8" s="35"/>
-      <c r="BE8" s="35"/>
-      <c r="BF8" s="35"/>
-      <c r="BG8" s="35"/>
-      <c r="BH8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="28"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="28"/>
+      <c r="W8" s="28"/>
+      <c r="X8" s="28"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="28"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="29"/>
+      <c r="AG8" s="27"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="28"/>
+      <c r="AL8" s="28"/>
+      <c r="AM8" s="28"/>
+      <c r="AN8" s="28"/>
+      <c r="AO8" s="28"/>
+      <c r="AP8" s="28"/>
+      <c r="AQ8" s="29"/>
+      <c r="AU8" s="27"/>
+      <c r="AV8" s="28"/>
+      <c r="AW8" s="28"/>
+      <c r="AX8" s="28"/>
+      <c r="AY8" s="28"/>
+      <c r="AZ8" s="28"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="28"/>
+      <c r="BC8" s="28"/>
+      <c r="BD8" s="28"/>
+      <c r="BE8" s="28"/>
+      <c r="BF8" s="28"/>
+      <c r="BG8" s="28"/>
+      <c r="BH8" s="29"/>
     </row>
     <row r="9" spans="2:60" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="48"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
-      <c r="U9" s="38"/>
-      <c r="V9" s="38"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="38"/>
-      <c r="Y9" s="38"/>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="38"/>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="39"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="38"/>
-      <c r="AJ9" s="38"/>
-      <c r="AK9" s="38"/>
-      <c r="AL9" s="38"/>
-      <c r="AM9" s="38"/>
-      <c r="AN9" s="38"/>
-      <c r="AO9" s="38"/>
-      <c r="AP9" s="38"/>
-      <c r="AQ9" s="39"/>
-      <c r="AU9" s="37"/>
-      <c r="AV9" s="38"/>
-      <c r="AW9" s="38"/>
-      <c r="AX9" s="38"/>
-      <c r="AY9" s="38"/>
-      <c r="AZ9" s="38"/>
-      <c r="BA9" s="38"/>
-      <c r="BB9" s="38"/>
-      <c r="BC9" s="38"/>
-      <c r="BD9" s="38"/>
-      <c r="BE9" s="38"/>
-      <c r="BF9" s="38"/>
-      <c r="BG9" s="38"/>
-      <c r="BH9" s="39"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="32"/>
+      <c r="AG9" s="30"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
+      <c r="AK9" s="31"/>
+      <c r="AL9" s="31"/>
+      <c r="AM9" s="31"/>
+      <c r="AN9" s="31"/>
+      <c r="AO9" s="31"/>
+      <c r="AP9" s="31"/>
+      <c r="AQ9" s="32"/>
+      <c r="AU9" s="30"/>
+      <c r="AV9" s="31"/>
+      <c r="AW9" s="31"/>
+      <c r="AX9" s="31"/>
+      <c r="AY9" s="31"/>
+      <c r="AZ9" s="31"/>
+      <c r="BA9" s="31"/>
+      <c r="BB9" s="31"/>
+      <c r="BC9" s="31"/>
+      <c r="BD9" s="31"/>
+      <c r="BE9" s="31"/>
+      <c r="BF9" s="31"/>
+      <c r="BG9" s="31"/>
+      <c r="BH9" s="32"/>
     </row>
     <row r="10" spans="2:60" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="49"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="49"/>
-      <c r="BB10" s="49"/>
-      <c r="BC10" s="49"/>
-      <c r="BD10" s="49"/>
-      <c r="BE10" s="49"/>
-      <c r="BF10" s="49"/>
-      <c r="BG10" s="49"/>
-      <c r="BH10" s="49"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="1"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1"/>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+      <c r="AZ10" s="1"/>
+      <c r="BA10" s="1"/>
+      <c r="BB10" s="1"/>
+      <c r="BC10" s="1"/>
+      <c r="BD10" s="1"/>
+      <c r="BE10" s="1"/>
+      <c r="BF10" s="1"/>
+      <c r="BG10" s="1"/>
+      <c r="BH10" s="1"/>
     </row>
     <row r="11" spans="2:60" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
-      <c r="AD11" s="65" t="s">
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+      <c r="AD11" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:60" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="54"/>
-      <c r="S12" s="62" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="6"/>
+      <c r="S12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="63"/>
-      <c r="U12" s="63"/>
-      <c r="V12" s="63"/>
-      <c r="W12" s="63"/>
-      <c r="X12" s="63"/>
-      <c r="Y12" s="64"/>
-      <c r="AD12" s="62" t="s">
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="17"/>
+      <c r="AD12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AE12" s="63"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="63"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="63"/>
-      <c r="AJ12" s="64"/>
-      <c r="AO12" s="62" t="s">
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="16"/>
+      <c r="AJ12" s="17"/>
+      <c r="AO12" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="AP12" s="63"/>
-      <c r="AQ12" s="63"/>
-      <c r="AR12" s="63"/>
-      <c r="AS12" s="63"/>
-      <c r="AT12" s="63"/>
-      <c r="AU12" s="64"/>
-      <c r="AZ12" s="62" t="s">
+      <c r="AP12" s="16"/>
+      <c r="AQ12" s="16"/>
+      <c r="AR12" s="16"/>
+      <c r="AS12" s="16"/>
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="17"/>
+      <c r="AZ12" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="BA12" s="63"/>
-      <c r="BB12" s="63"/>
-      <c r="BC12" s="63"/>
-      <c r="BD12" s="63"/>
-      <c r="BE12" s="63"/>
-      <c r="BF12" s="64"/>
+      <c r="BA12" s="16"/>
+      <c r="BB12" s="16"/>
+      <c r="BC12" s="16"/>
+      <c r="BD12" s="16"/>
+      <c r="BE12" s="16"/>
+      <c r="BF12" s="17"/>
     </row>
     <row r="13" spans="2:60" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="60"/>
-      <c r="AC13" s="60"/>
-      <c r="AD13" s="60"/>
-      <c r="AE13" s="60"/>
-      <c r="AF13" s="60"/>
-      <c r="AG13" s="60"/>
-      <c r="AH13" s="60"/>
-      <c r="AI13" s="60"/>
-      <c r="AJ13" s="60"/>
-      <c r="AK13" s="60"/>
-      <c r="AL13" s="60"/>
-      <c r="AM13" s="60"/>
-      <c r="AN13" s="60"/>
-      <c r="AO13" s="60"/>
-      <c r="AP13" s="60"/>
-      <c r="AQ13" s="60"/>
-      <c r="AR13" s="60"/>
-      <c r="AS13" s="60"/>
-      <c r="AT13" s="60"/>
-      <c r="AU13" s="60"/>
-      <c r="AV13" s="60"/>
-      <c r="AW13" s="60"/>
-      <c r="AX13" s="60"/>
-      <c r="AY13" s="60"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="60"/>
-      <c r="BB13" s="60"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="60"/>
-      <c r="BE13" s="60"/>
-      <c r="BF13" s="60"/>
-      <c r="BG13" s="60"/>
-      <c r="BH13" s="60"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
     </row>
     <row r="14" spans="2:60" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
-      <c r="N14" s="60"/>
-      <c r="O14" s="55"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
     </row>
     <row r="15" spans="2:60" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O15" s="55"/>
+      <c r="O15" s="7"/>
     </row>
     <row r="16" spans="2:60" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="58"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="59"/>
-      <c r="O16" s="55"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="O16" s="7"/>
     </row>
     <row r="17" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O17" s="55"/>
+      <c r="O17" s="7"/>
     </row>
     <row r="18" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
-      <c r="O18" s="55"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="O18" s="7"/>
     </row>
     <row r="19" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O19" s="55"/>
+      <c r="O19" s="7"/>
     </row>
     <row r="20" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="58"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="59"/>
-      <c r="O20" s="55"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="O20" s="7"/>
     </row>
     <row r="21" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O21" s="55"/>
+      <c r="O21" s="7"/>
     </row>
     <row r="22" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="59"/>
-      <c r="O22" s="55"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="O22" s="7"/>
     </row>
     <row r="23" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O23" s="55"/>
+      <c r="O23" s="7"/>
     </row>
     <row r="24" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="58"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="59"/>
-      <c r="O24" s="55"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="14"/>
+      <c r="O24" s="7"/>
     </row>
     <row r="25" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O25" s="55"/>
+      <c r="O25" s="7"/>
     </row>
     <row r="26" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
-      <c r="H26" s="58"/>
-      <c r="I26" s="58"/>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="59"/>
-      <c r="O26" s="55"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="O26" s="7"/>
     </row>
     <row r="27" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O27" s="55"/>
+      <c r="O27" s="7"/>
     </row>
     <row r="28" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
-      <c r="H28" s="58"/>
-      <c r="I28" s="58"/>
-      <c r="J28" s="58"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="59"/>
-      <c r="O28" s="55"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="14"/>
+      <c r="O28" s="7"/>
     </row>
     <row r="29" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O29" s="55"/>
+      <c r="O29" s="7"/>
     </row>
     <row r="30" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="58"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="59"/>
-      <c r="O30" s="55"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O31" s="55"/>
+      <c r="O31" s="7"/>
     </row>
     <row r="32" spans="3:15" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="58"/>
-      <c r="K32" s="58"/>
-      <c r="L32" s="59"/>
-      <c r="O32" s="55"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="14"/>
+      <c r="O32" s="7"/>
     </row>
     <row r="33" spans="2:60" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O33" s="55"/>
+      <c r="O33" s="7"/>
     </row>
     <row r="34" spans="2:60" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="59"/>
-      <c r="O34" s="55"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+      <c r="O34" s="7"/>
     </row>
     <row r="35" spans="2:60" ht="12" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
-      <c r="J35" s="60"/>
-      <c r="K35" s="60"/>
-      <c r="L35" s="60"/>
-      <c r="M35" s="60"/>
-      <c r="N35" s="60"/>
-      <c r="O35" s="55"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="7"/>
     </row>
     <row r="36" spans="2:60" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49"/>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49"/>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49"/>
-      <c r="AB36" s="49"/>
-      <c r="AC36" s="49"/>
-      <c r="AD36" s="49"/>
-      <c r="AE36" s="49"/>
-      <c r="AF36" s="49"/>
-      <c r="AG36" s="49"/>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="49"/>
-      <c r="AJ36" s="49"/>
-      <c r="AK36" s="49"/>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="49"/>
-      <c r="AN36" s="49"/>
-      <c r="AO36" s="49"/>
-      <c r="AP36" s="49"/>
-      <c r="AQ36" s="49"/>
-      <c r="AR36" s="49"/>
-      <c r="AS36" s="49"/>
-      <c r="AT36" s="49"/>
-      <c r="AU36" s="49"/>
-      <c r="AV36" s="49"/>
-      <c r="AW36" s="49"/>
-      <c r="AX36" s="49"/>
-      <c r="AY36" s="49"/>
-      <c r="AZ36" s="49"/>
-      <c r="BA36" s="49"/>
-      <c r="BB36" s="49"/>
-      <c r="BC36" s="49"/>
-      <c r="BD36" s="49"/>
-      <c r="BE36" s="49"/>
-      <c r="BF36" s="49"/>
-      <c r="BG36" s="49"/>
-      <c r="BH36" s="49"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="1"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+      <c r="AT36" s="1"/>
+      <c r="AU36" s="1"/>
+      <c r="AV36" s="1"/>
+      <c r="AW36" s="1"/>
+      <c r="AX36" s="1"/>
+      <c r="AY36" s="1"/>
+      <c r="AZ36" s="1"/>
+      <c r="BA36" s="1"/>
+      <c r="BB36" s="1"/>
+      <c r="BC36" s="1"/>
+      <c r="BD36" s="1"/>
+      <c r="BE36" s="1"/>
+      <c r="BF36" s="1"/>
+      <c r="BG36" s="1"/>
+      <c r="BH36" s="1"/>
     </row>
     <row r="37" spans="2:60" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="2:60" ht="12" customHeight="1" x14ac:dyDescent="0.25">
@@ -2392,6 +2385,22 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B4:K5"/>
+    <mergeCell ref="M4:AK5"/>
+    <mergeCell ref="AM4:AO5"/>
+    <mergeCell ref="AQ4:AW5"/>
+    <mergeCell ref="AY4:BH5"/>
+    <mergeCell ref="C24:L24"/>
+    <mergeCell ref="C22:L22"/>
+    <mergeCell ref="AU7:BH9"/>
+    <mergeCell ref="B7:K9"/>
+    <mergeCell ref="O7:AC9"/>
+    <mergeCell ref="AG7:AQ9"/>
+    <mergeCell ref="C34:L34"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="C28:L28"/>
+    <mergeCell ref="C26:L26"/>
     <mergeCell ref="C20:L20"/>
     <mergeCell ref="C18:L18"/>
     <mergeCell ref="AZ12:BF12"/>
@@ -2400,22 +2409,6 @@
     <mergeCell ref="S12:Y12"/>
     <mergeCell ref="B12:M13"/>
     <mergeCell ref="C16:L16"/>
-    <mergeCell ref="C34:L34"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="C30:L30"/>
-    <mergeCell ref="C28:L28"/>
-    <mergeCell ref="C26:L26"/>
-    <mergeCell ref="C24:L24"/>
-    <mergeCell ref="C22:L22"/>
-    <mergeCell ref="AU7:BH9"/>
-    <mergeCell ref="B7:K9"/>
-    <mergeCell ref="O7:AC9"/>
-    <mergeCell ref="AG7:AQ9"/>
-    <mergeCell ref="B4:K5"/>
-    <mergeCell ref="M4:AK5"/>
-    <mergeCell ref="AM4:AO5"/>
-    <mergeCell ref="AQ4:AW5"/>
-    <mergeCell ref="AY4:BH5"/>
   </mergeCells>
   <pageMargins left="0.41666666666666669" right="0.3125" top="0.47916666666666669" bottom="0.53125" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
